--- a/Datos/Anuario2024/030903_ZonasPeatonales.xlsx
+++ b/Datos/Anuario2024/030903_ZonasPeatonales.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="117" r:id="rId1"/>
+    <sheet name="1" sheetId="116" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -76,69 +82,153 @@
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>ZONAS PEATONALES</t>
+  </si>
+  <si>
+    <t>1. Tramos peatonales. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Datos expresados en metros.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,116 +276,57 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -11983,7 +12014,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15778,8 +15809,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16686,306 +16717,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>ZONAS PEATONALES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>1. Tramos peatonales. 2023</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="B1" s="1" t="n"/>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="1" t="n"/>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Longitud</t>
-        </is>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B5:B23)</f>
-        <v/>
+        <v>107557</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>31481</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>1745</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>1250</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>6967</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="6">
         <v>3760</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>2781</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="6">
         <v>5549</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>3352</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="6">
         <v>3047</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>6827</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="6">
         <v>9453</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>2845</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="6">
         <v>7064</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>4617</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="6">
         <v>3710</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>7908</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="9">
         <v>1223</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>2170</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="9">
         <v>1808</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Nota: Datos expresados en metros.</t>
-        </is>
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>